--- a/Ahmed Mohamed Ahmed.xlsx
+++ b/Ahmed Mohamed Ahmed.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORIGINAL\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ORIGINAL\sales-dashboard-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14A7E6E0-4038-4F21-91FC-A620645A5345}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0205797-B63A-4A7E-9CF5-BD86FDE2DFCB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="1" activeTab="3" xr2:uid="{ABA3C28C-2418-48BE-8568-67097A970FF0}"/>
   </bookViews>
@@ -417,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -426,7 +426,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -5443,6 +5442,10 @@
         <a:lstStyle/>
         <a:p>
           <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="ar-EG" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
           <a:endParaRPr lang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -7803,6 +7806,409 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E2D2A81-8C51-4E8F-81E3-FF2D95E1B411}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
+  <location ref="F15:G22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="8"/>
+  </rowFields>
+  <rowItems count="7">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="7">
+    <chartFormat chart="3" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="3">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="4">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="5"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="5">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="3"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="6">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="2"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="7">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="4"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+    <chartFormat chart="3" format="8">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="2">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+          <reference field="8" count="1" selected="0">
+            <x v="1"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE740629-0839-49D5-9C0E-683F8C81DDED}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="B14:C42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="28">
+        <item x="2"/>
+        <item x="5"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="24"/>
+        <item x="14"/>
+        <item x="26"/>
+        <item x="15"/>
+        <item x="10"/>
+        <item x="8"/>
+        <item x="12"/>
+        <item x="22"/>
+        <item x="7"/>
+        <item x="9"/>
+        <item x="0"/>
+        <item x="3"/>
+        <item x="20"/>
+        <item x="11"/>
+        <item x="21"/>
+        <item x="16"/>
+        <item x="23"/>
+        <item x="19"/>
+        <item x="18"/>
+        <item x="6"/>
+        <item x="17"/>
+        <item x="13"/>
+        <item x="25"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="4"/>
+  </rowFields>
+  <rowItems count="28">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="4"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="12"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="16"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i>
+      <x v="22"/>
+    </i>
+    <i>
+      <x v="23"/>
+    </i>
+    <i>
+      <x v="24"/>
+    </i>
+    <i>
+      <x v="25"/>
+    </i>
+    <i>
+      <x v="26"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5717401-4354-4438-99BF-119BA18A8B75}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
+  <location ref="C3:C4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowItems count="1">
+    <i/>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A4C5A3A1-DD99-400A-99C0-44DB30A3EB7B}" name="PivotTable8" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="14" fieldListSortAscending="1">
   <location ref="H26:H27" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
@@ -7862,7 +8268,7 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{E2F50F02-707E-49BA-A561-9E1D2724B12A}" name="PivotTable6" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
   <location ref="D8:D9" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
   <pivotFields count="10">
@@ -7922,7 +8328,89 @@
 </pivotTableDefinition>
 </file>
 
-<file path=xl/pivotTables/pivotTable3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F7AAC32-C94E-48D1-B121-D5D2F98FF1B7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" fieldListSortAscending="1">
+  <location ref="B9:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="10">
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0">
+      <items count="5">
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+    <pivotField showAll="0">
+      <items count="7">
+        <item x="5"/>
+        <item x="2"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="9"/>
+  </rowFields>
+  <rowItems count="3">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of Amount" fld="7" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="4" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
 <pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{C83F1E92-D34A-4B69-AA2B-699E025DC595}" name="PivotTable1" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="23" fieldListSortAscending="1">
   <location ref="A1:B6" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="10">
@@ -8131,491 +8619,6 @@
           </reference>
           <reference field="3" count="1" selected="0">
             <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable4.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{1E2D2A81-8C51-4E8F-81E3-FF2D95E1B411}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="4" fieldListSortAscending="1">
-  <location ref="F15:G22" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="8"/>
-  </rowFields>
-  <rowItems count="7">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="7">
-    <chartFormat chart="3" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="3">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="4">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="5"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="5">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="3"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="6">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="2"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="7">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="4"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-    <chartFormat chart="3" format="8">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="2">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
-          </reference>
-          <reference field="8" count="1" selected="0">
-            <x v="1"/>
-          </reference>
-        </references>
-      </pivotArea>
-    </chartFormat>
-  </chartFormats>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable5.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{DE740629-0839-49D5-9C0E-683F8C81DDED}" name="PivotTable3" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="B14:C42" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="28">
-        <item x="2"/>
-        <item x="5"/>
-        <item x="1"/>
-        <item x="4"/>
-        <item x="24"/>
-        <item x="14"/>
-        <item x="26"/>
-        <item x="15"/>
-        <item x="10"/>
-        <item x="8"/>
-        <item x="12"/>
-        <item x="22"/>
-        <item x="7"/>
-        <item x="9"/>
-        <item x="0"/>
-        <item x="3"/>
-        <item x="20"/>
-        <item x="11"/>
-        <item x="21"/>
-        <item x="16"/>
-        <item x="23"/>
-        <item x="19"/>
-        <item x="18"/>
-        <item x="6"/>
-        <item x="17"/>
-        <item x="13"/>
-        <item x="25"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="4"/>
-  </rowFields>
-  <rowItems count="28">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="2"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="4"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="12"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="16"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i>
-      <x v="22"/>
-    </i>
-    <i>
-      <x v="23"/>
-    </i>
-    <i>
-      <x v="24"/>
-    </i>
-    <i>
-      <x v="25"/>
-    </i>
-    <i>
-      <x v="26"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable6.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{A5717401-4354-4438-99BF-119BA18A8B75}" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" fieldListSortAscending="1">
-  <location ref="C3:C4" firstHeaderRow="1" firstDataRow="1" firstDataCol="0"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowItems count="1">
-    <i/>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
-      <xpdl:pivotTableDefinition16/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable7.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{3F7AAC32-C94E-48D1-B121-D5D2F98FF1B7}" name="PivotTable2" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="8" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="8" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="5" fieldListSortAscending="1">
-  <location ref="B9:C12" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="10">
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0">
-      <items count="5">
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-    <pivotField showAll="0">
-      <items count="7">
-        <item x="5"/>
-        <item x="2"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="3"/>
-        <item x="4"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField axis="axisRow" showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="9"/>
-  </rowFields>
-  <rowItems count="3">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of Amount" fld="7" baseField="0" baseItem="0"/>
-  </dataFields>
-  <chartFormats count="1">
-    <chartFormat chart="4" format="2" series="1">
-      <pivotArea type="data" outline="0" fieldPosition="0">
-        <references count="1">
-          <reference field="4294967294" count="1" selected="0">
-            <x v="0"/>
           </reference>
         </references>
       </pivotArea>
@@ -11840,7 +11843,7 @@
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="6">
+      <c r="B2">
         <v>289280</v>
       </c>
     </row>
@@ -11848,7 +11851,7 @@
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="6">
+      <c r="B3">
         <v>522340</v>
       </c>
       <c r="C3" t="s">
@@ -11859,10 +11862,10 @@
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B4" s="6">
+      <c r="B4">
         <v>819760</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4">
         <v>1823880</v>
       </c>
       <c r="D4">
@@ -11874,7 +11877,7 @@
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B5" s="6">
+      <c r="B5">
         <v>192500</v>
       </c>
     </row>
@@ -11882,7 +11885,7 @@
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="6">
+      <c r="B6">
         <v>1823880</v>
       </c>
     </row>
@@ -11898,7 +11901,7 @@
       <c r="C9" t="s">
         <v>0</v>
       </c>
-      <c r="D9" s="6">
+      <c r="D9">
         <v>84</v>
       </c>
       <c r="E9">
@@ -11910,7 +11913,7 @@
       <c r="B10" s="2">
         <v>2025</v>
       </c>
-      <c r="C10" s="6">
+      <c r="C10">
         <v>1785280</v>
       </c>
     </row>
@@ -11918,7 +11921,7 @@
       <c r="B11" s="2">
         <v>2026</v>
       </c>
-      <c r="C11" s="6">
+      <c r="C11">
         <v>38600</v>
       </c>
     </row>
@@ -11926,7 +11929,7 @@
       <c r="B12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C12" s="6">
+      <c r="C12">
         <v>1823880</v>
       </c>
     </row>
@@ -11942,7 +11945,7 @@
       <c r="B15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6">
+      <c r="C15">
         <v>18720</v>
       </c>
       <c r="F15" s="1" t="s">
@@ -11956,13 +11959,13 @@
       <c r="B16" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="6">
+      <c r="C16">
         <v>16200</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="G16" s="6">
+      <c r="G16">
         <v>3300</v>
       </c>
     </row>
@@ -11970,13 +11973,13 @@
       <c r="B17" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="6">
+      <c r="C17">
         <v>764000</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G17" s="6">
+      <c r="G17">
         <v>35300</v>
       </c>
     </row>
@@ -11984,13 +11987,13 @@
       <c r="B18" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="6">
+      <c r="C18">
         <v>430800</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="G18" s="6">
+      <c r="G18">
         <v>644440</v>
       </c>
     </row>
@@ -11998,13 +12001,13 @@
       <c r="B19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="6">
+      <c r="C19">
         <v>13300</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G19" s="6">
+      <c r="G19">
         <v>42050</v>
       </c>
     </row>
@@ -12012,13 +12015,13 @@
       <c r="B20" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="6">
+      <c r="C20">
         <v>19200</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G20" s="6">
+      <c r="G20">
         <v>797890</v>
       </c>
     </row>
@@ -12026,13 +12029,13 @@
       <c r="B21" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="6">
+      <c r="C21">
         <v>6600</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G21" s="6">
+      <c r="G21">
         <v>300900</v>
       </c>
     </row>
@@ -12040,13 +12043,13 @@
       <c r="B22" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="6">
+      <c r="C22">
         <v>54000</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G22" s="6">
+      <c r="G22">
         <v>1823880</v>
       </c>
     </row>
@@ -12054,7 +12057,7 @@
       <c r="B23" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="6">
+      <c r="C23">
         <v>19600</v>
       </c>
     </row>
@@ -12062,7 +12065,7 @@
       <c r="B24" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="6">
+      <c r="C24">
         <v>12000</v>
       </c>
     </row>
@@ -12070,7 +12073,7 @@
       <c r="B25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="6">
+      <c r="C25">
         <v>10800</v>
       </c>
     </row>
@@ -12078,7 +12081,7 @@
       <c r="B26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="6">
+      <c r="C26">
         <v>7600</v>
       </c>
       <c r="H26" t="s">
@@ -12089,10 +12092,10 @@
       <c r="B27" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="6">
+      <c r="C27">
         <v>36000</v>
       </c>
-      <c r="H27" s="6">
+      <c r="H27">
         <v>11191</v>
       </c>
       <c r="I27">
@@ -12104,7 +12107,7 @@
       <c r="B28" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="6">
+      <c r="C28">
         <v>7500</v>
       </c>
     </row>
@@ -12112,7 +12115,7 @@
       <c r="B29" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="6">
+      <c r="C29">
         <v>50300</v>
       </c>
     </row>
@@ -12120,7 +12123,7 @@
       <c r="B30" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="6">
+      <c r="C30">
         <v>24960</v>
       </c>
     </row>
@@ -12128,7 +12131,7 @@
       <c r="B31" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="6">
+      <c r="C31">
         <v>19200</v>
       </c>
     </row>
@@ -12136,7 +12139,7 @@
       <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="6">
+      <c r="C32">
         <v>45000</v>
       </c>
     </row>
@@ -12144,7 +12147,7 @@
       <c r="B33" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="6">
+      <c r="C33">
         <v>24000</v>
       </c>
     </row>
@@ -12152,7 +12155,7 @@
       <c r="B34" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="6">
+      <c r="C34">
         <v>28000</v>
       </c>
     </row>
@@ -12160,7 +12163,7 @@
       <c r="B35" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="6">
+      <c r="C35">
         <v>14000</v>
       </c>
     </row>
@@ -12168,7 +12171,7 @@
       <c r="B36" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C36" s="6">
+      <c r="C36">
         <v>11000</v>
       </c>
     </row>
@@ -12176,7 +12179,7 @@
       <c r="B37" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C37" s="6">
+      <c r="C37">
         <v>27000</v>
       </c>
     </row>
@@ -12184,7 +12187,7 @@
       <c r="B38" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C38" s="6">
+      <c r="C38">
         <v>138600</v>
       </c>
     </row>
@@ -12192,7 +12195,7 @@
       <c r="B39" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C39" s="6">
+      <c r="C39">
         <v>7500</v>
       </c>
     </row>
@@ -12200,7 +12203,7 @@
       <c r="B40" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C40" s="6">
+      <c r="C40">
         <v>7200</v>
       </c>
     </row>
@@ -12208,7 +12211,7 @@
       <c r="B41" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="C41" s="6">
+      <c r="C41">
         <v>10800</v>
       </c>
     </row>
@@ -12216,7 +12219,7 @@
       <c r="B42" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="C42" s="6">
+      <c r="C42">
         <v>1823880</v>
       </c>
     </row>
@@ -12250,7 +12253,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="P8" sqref="P8"/>
+      <selection activeCell="W1" sqref="W1:W1048576"/>
       <extLst>
         <ext xmlns:xlsdti="http://schemas.microsoft.com/office/spreadsheetml/2023/showDataTypeIcons" uri="{77bfe23e-c014-4d31-8a63-9c772dbf06b6}">
           <xlsdti:showDataTypeIcons visible="0"/>
